--- a/Common/Android_Test_Driven_Development_by_Tutorials_v2.0.0_Resume.xlsx
+++ b/Common/Android_Test_Driven_Development_by_Tutorials_v2.0.0_Resume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\AppliDesign\IEI\git\Material\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0AC03A-2A39-44B6-9619-94A64D9B2943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AF929F-7D52-4BE2-B458-CD1AF7555B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="0" windowWidth="14580" windowHeight="17370" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Item</t>
   </si>
@@ -450,22 +450,353 @@
     <t>Reusable solution to a common software design problem. It’s not finished code, but a general template or best practice you can adapt to solve problems in your specific context.</t>
   </si>
   <si>
-    <t>Design patterns - Creational</t>
-  </si>
-  <si>
-    <t>Singleton
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Singleton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
     Only one instance of a certain class may exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Builder
-    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Builder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Abstracts the construction of a complex object, joining several parts.
+Example:
+AlertDialog.Builder(this)
+  .setTitle("Error!")
+  .setMessage("There was an error, would you like to retry?")
+  .setPositiveButton("Retry", { dialogInterface, i -&gt;
+    ...
+  })
+  .show()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dependency Injection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    A method to provide objects (dependencies) that a class needs — instead of the class creating those objects itself.
+Type:
+- Constructor Injection
+- Property or Method injection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design patterns</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Creational</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design patterns</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Structural</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design patterns</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Behavioral</t>
+    </r>
+  </si>
+  <si>
+    <t>Explain how objects interact and how a task can be divided into sub-tasks among different objects.</t>
+  </si>
+  <si>
+    <t>Ease the design to establish relationships between objects</t>
+  </si>
+  <si>
+    <t>Describe solutions related to object creation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adapter (or Wrapper)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Example: Adapter to show list of data in a RecyclerView</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Composite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Construct complex objects composed of individual parts, and to treat the individual parts and the composition uniformly
+Example: View, ViewGroup</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Facade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Defines a high-level interface object which hides the complexity of underlying objects.
+Example:
+When a client object call getProducts(), it will get products object without knowing whether they are from local or server</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Observer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    There’s an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>observable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> object which you can observe, and there’s one or more </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>observer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> objects that you use to subscribe to the observable
+Example:
+OnClickListener, LiveData</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Command</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Describes the encapsulation of an operation without knowing the real content of the operation or the receiver.
+Example: Undo or Redo feature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design patterns</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Architectural </t>
+    </r>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>MVC
+    View and Controller logic are combined, makes hard to test.
+Try to split View and Controller by using View Interface
+Before:
+After:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +903,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -807,7 +1146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -931,6 +1270,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1048,6 +1393,116 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>592666</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>627947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4612047</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>2250725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458B61C3-E26F-2D73-9B0E-06C4B3DCF288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5044722" y="29703891"/>
+          <a:ext cx="4019381" cy="1622778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601555</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>2473804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4224955</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>4511027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7337DE-EB4B-923A-7471-94BC6FABA5A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5056033" y="31498991"/>
+          <a:ext cx="3623400" cy="2037223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1352,18 +1807,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBECE46-0004-4AB9-A50E-F1B658391690}">
-  <dimension ref="B2:G75"/>
+  <dimension ref="B2:G84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.36328125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="75.81640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="74.26953125" style="10" customWidth="1"/>
     <col min="5" max="5" width="7.36328125" style="7" customWidth="1"/>
     <col min="6" max="6" width="17.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="46.1796875" style="1" customWidth="1"/>
@@ -1908,13 +2363,13 @@
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51" s="35"/>
       <c r="C51" s="27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="4"/>
@@ -1924,128 +2379,156 @@
       <c r="B52" s="35"/>
       <c r="C52" s="27"/>
       <c r="D52" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="4"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" ht="145" x14ac:dyDescent="0.35">
       <c r="B53" s="35"/>
       <c r="C53" s="27"/>
-      <c r="D53" s="9"/>
+      <c r="D53" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B54" s="35"/>
       <c r="C54" s="27"/>
-      <c r="D54" s="9"/>
+      <c r="D54" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="4"/>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="38"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="9"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="4"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="39"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="23"/>
+    <row r="56" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B56" s="35"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="E56" s="6"/>
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="2:7" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="40"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="8"/>
+    <row r="57" spans="2:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="B57" s="38"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B58" s="38"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="9"/>
+    <row r="58" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B58" s="42"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E58" s="6"/>
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="38"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="9"/>
+    <row r="59" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B59" s="42"/>
+      <c r="C59" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="4"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="38"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="9"/>
+    <row r="60" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B60" s="42"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="38"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="9"/>
+    <row r="61" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B61" s="42"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="4"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B62" s="38"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="9"/>
+    <row r="62" spans="2:7" ht="364" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="42"/>
+      <c r="C62" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="4"/>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="38"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="9"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="E63" s="6"/>
       <c r="F63" s="4"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B64" s="38"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="6"/>
       <c r="F64" s="4"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B65" s="38"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="9"/>
+    <row r="65" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="39"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="6"/>
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="39"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="23"/>
+    <row r="66" spans="2:7" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="40"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="6"/>
       <c r="F66" s="4"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="2:7" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="40"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="8"/>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="38"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="9"/>
       <c r="E67" s="6"/>
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
@@ -2106,17 +2589,89 @@
       <c r="F74" s="4"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B75" s="38"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="9"/>
+    <row r="75" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="39"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="6"/>
       <c r="F75" s="4"/>
       <c r="G75" s="3"/>
     </row>
+    <row r="76" spans="2:7" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="40"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="38"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B78" s="38"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="38"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="38"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B81" s="38"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B82" s="38"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B83" s="38"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B84" s="38"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F75" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F84" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
       <formula1>"o,x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Common/Android_Test_Driven_Development_by_Tutorials_v2.0.0_Resume.xlsx
+++ b/Common/Android_Test_Driven_Development_by_Tutorials_v2.0.0_Resume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\AppliDesign\IEI\git\Material\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AF929F-7D52-4BE2-B458-CD1AF7555B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CC086D-626B-4C11-9E24-03854EE86BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Item</t>
   </si>
@@ -759,37 +759,83 @@
     </r>
   </si>
   <si>
+    <t>Architectural design patterns</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design patterns</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Architectural </t>
-    </r>
-  </si>
-  <si>
-    <t>MVP</t>
-  </si>
-  <si>
-    <t>MVC
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MVC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
     View and Controller logic are combined, makes hard to test.
 Try to split View and Controller by using View Interface
 Before:
 After:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MVP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Presenter retrieves data from the Model and updates it accordingly. It has UI presentation logic that decides what to display. It notifies the View when a Model has changed. Therefore, it has a reference to the View and the Model.
+    Differences between the MVC and MVP patterns are that in MVP, the View doesn’t have a direct reference to the Model, meaning it is loosely-coupled. Instead, the Presenter brings the transformed or simplified Model, ready to be displayed to the View. MVP also proposes that the Presenter should handle everything related to the presentation of the View.
+    When testing you can mock both view interface or presenter interface, based on the necessity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MVVM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    ViewModel retrieves data from the Model and updates it accordingly. Exposes streams of data ready to be displayed, but it doesn’t know and doesn’t care about who is subscribed to the streams.
+    The ViewModel doesn’t have a reference to the View, not even an interface. It just exposes streams of data (Observables), it could be the Model or a transformed-displayable Model.
+    When testing you can mock the viewmodel dependency, based on the necessity and assert the observable state that will be consumed by the UI.</t>
+    </r>
+  </si>
+  <si>
+    <t>SOLD principles</t>
   </si>
 </sst>
 </file>
@@ -1503,6 +1549,138 @@
             <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68188</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>792685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4148928</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>3094027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83EF730-2EC6-42F7-B9E9-516AA87093D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4521711" y="34652249"/>
+          <a:ext cx="4080740" cy="2301342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>736600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4504778</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>2203450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FB2209-3F07-42D9-5265-83CEF53FD465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4502149" y="39166800"/>
+          <a:ext cx="4453979" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1807,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBECE46-0004-4AB9-A50E-F1B658391690}">
-  <dimension ref="B2:G84"/>
+  <dimension ref="B2:I91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -2297,7 +2475,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="2:7" ht="31.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B45" s="34" t="s">
         <v>59</v>
       </c>
@@ -2341,7 +2519,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B49" s="35"/>
       <c r="C49" s="27"/>
       <c r="D49" s="9" t="s">
@@ -2351,7 +2529,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B50" s="35"/>
       <c r="C50" s="27" t="s">
         <v>66</v>
@@ -2363,7 +2541,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="35"/>
       <c r="C51" s="27" t="s">
         <v>71</v>
@@ -2375,7 +2553,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B52" s="35"/>
       <c r="C52" s="27"/>
       <c r="D52" s="9" t="s">
@@ -2385,7 +2563,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="2:7" ht="145" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="145" x14ac:dyDescent="0.35">
       <c r="B53" s="35"/>
       <c r="C53" s="27"/>
       <c r="D53" s="9" t="s">
@@ -2395,7 +2573,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="2:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" ht="87" x14ac:dyDescent="0.35">
       <c r="B54" s="35"/>
       <c r="C54" s="27"/>
       <c r="D54" s="9" t="s">
@@ -2405,7 +2583,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="35"/>
       <c r="C55" s="27" t="s">
         <v>72</v>
@@ -2417,7 +2595,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="35"/>
       <c r="C56" s="27"/>
       <c r="D56" s="9" t="s">
@@ -2427,7 +2605,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="2:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" ht="87" x14ac:dyDescent="0.35">
       <c r="B57" s="38"/>
       <c r="C57" s="27"/>
       <c r="D57" s="9" t="s">
@@ -2437,7 +2615,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B58" s="42"/>
       <c r="C58" s="28"/>
       <c r="D58" s="11" t="s">
@@ -2447,7 +2625,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B59" s="42"/>
       <c r="C59" s="28" t="s">
         <v>73</v>
@@ -2459,7 +2637,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B60" s="42"/>
       <c r="C60" s="28"/>
       <c r="D60" s="11" t="s">
@@ -2469,7 +2647,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B61" s="42"/>
       <c r="C61" s="28"/>
       <c r="D61" s="11" t="s">
@@ -2479,72 +2657,77 @@
       <c r="F61" s="4"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="2:7" ht="364" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" ht="364" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="42"/>
       <c r="C62" s="28" t="s">
         <v>82</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="4"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" ht="362.5" x14ac:dyDescent="0.35">
       <c r="B63" s="42"/>
       <c r="C63" s="28"/>
-      <c r="D63" s="11" t="s">
-        <v>83</v>
+      <c r="D63" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="4"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" ht="261" x14ac:dyDescent="0.35">
       <c r="B64" s="42"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="11"/>
+      <c r="D64" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="E64" s="6"/>
       <c r="F64" s="4"/>
       <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="39"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="23"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="42"/>
+      <c r="C65" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="11"/>
       <c r="E65" s="6"/>
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="40"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="8"/>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B66" s="42"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="6"/>
       <c r="F66" s="4"/>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B67" s="38"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="9"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="6"/>
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B68" s="38"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="9"/>
+    <row r="68" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="39"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="6"/>
       <c r="F68" s="4"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B69" s="38"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="9"/>
+    <row r="69" spans="2:7" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="40"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="6"/>
       <c r="F69" s="4"/>
       <c r="G69" s="3"/>
@@ -2589,18 +2772,18 @@
       <c r="F74" s="4"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="39"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="23"/>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="38"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="6"/>
       <c r="F75" s="4"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="2:7" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="40"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="8"/>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B76" s="38"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="9"/>
       <c r="E76" s="6"/>
       <c r="F76" s="4"/>
       <c r="G76" s="3"/>
@@ -2613,18 +2796,18 @@
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B78" s="38"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="9"/>
+    <row r="78" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="39"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="6"/>
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B79" s="38"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="9"/>
+    <row r="79" spans="2:7" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="40"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="6"/>
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
@@ -2669,9 +2852,36 @@
       <c r="F84" s="4"/>
       <c r="G84" s="3"/>
     </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B85" s="38"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B86" s="38"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="38"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D91"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F84" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F87" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
       <formula1>"o,x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Common/Android_Test_Driven_Development_by_Tutorials_v2.0.0_Resume.xlsx
+++ b/Common/Android_Test_Driven_Development_by_Tutorials_v2.0.0_Resume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\AppliDesign\IEI\git\Material\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CC086D-626B-4C11-9E24-03854EE86BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E623A262-F36C-456B-B117-E1F04C49A1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
+    <workbookView xWindow="14310" yWindow="0" windowWidth="14580" windowHeight="17370" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Item</t>
   </si>
@@ -836,6 +836,372 @@
   </si>
   <si>
     <t>SOLD principles</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single responsibility (SRP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Each class should have a unique objective or should be useful for a specific case</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Open-closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Classes, methods, etc. should be open for extension but closed for modification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liskov substitution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    In the subclass you can override some of the parent methods as long as you continue to comply with its semantics and maintain the expected behavior</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interface segregation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    This principle encourages you to create fine grained interfaces that are client specific.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dependency inversion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    This principle states that a concrete class A should not depend on a concrete class B, but an abstraction of B instead</t>
+    </r>
+  </si>
+  <si>
+    <t>Introduction to Mockito</t>
+  </si>
+  <si>
+    <t>Mocking and verifying</t>
+  </si>
+  <si>
+    <t>Stubbing methods</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  @Test
+  fun whenAnsweringCorrectly_shouldIncrementCurrentScore() {
+  	// 1
+    val question = mock&lt;Question&gt;()
+    whenever(question.answer(anyString())).thenReturn(true) // this is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stubbing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    val game = Game(listOf(question))
+    // 2
+    game.answer(question, "OPTION")
+    // 3
+    Assert.assertEquals(1, game.currentScore)
+  }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  @Test
+  fun whenAnswering_shouldDelegateToQuestion() {
+    // 1
+    val question = mock&lt;Question&gt;() // this is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mocking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    val game = Game(listOf(question))
+    // 2
+    game.answer(question, "OPTION")
+    // 3
+    verify(question, times(1)).answer(eq("OPTION")) // this is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verifying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  }</t>
+    </r>
+  </si>
+  <si>
+    <t>Spying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Using a spy will let you call the methods of a real object, while also tracking every interaction, just as you would do with a mock. When setting up spies, you need to use doReturn/whenever/method to stub a method.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Using whenever/method/thenReturn you’re stubbing the question.answer() method to always return true</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  @Test
+  fun saveScore_shouldNotSaveToSharedPreferencesIfLower() {
+    val previouslySavedHighScore = 100
+    val newHighScore = 10
+    val spyRepository = spy(repository)
+    doReturn(previouslySavedHighScore)
+        .whenever(spyRepository)
+        .getHighScore() // this is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    spyRepository.saveHighScore(newHighScore) // this is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    verify(sharedPreferencesEditor, never())
+        .putInt(any(), eq(newHighScore))
+  }</t>
+    </r>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    There are two options:
+- Using Android device or emulator
+- Robolectric</t>
+  </si>
+  <si>
+    <t>Test Rule</t>
+  </si>
+  <si>
+    <t>@get:Rule
+var instantTaskExecutorRule = InstantTaskExecutorRule()
+    A test rule is a tool to change the way tests run, sometimes adding additional checks or running code before and after your tests</t>
+  </si>
+  <si>
+    <t>Setting up the test class
+    Apply the same method as used in the Unit Test.</t>
+  </si>
+  <si>
+    <t>Creating a test class (androidTest)</t>
+  </si>
+  <si>
+    <t>Creating a test class (Robolectric)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create test -&gt; select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> package</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using the Create Test shortcut: 
+* Mac: ⌘-⇧-T
+* Windows: Ctrl-Shift-T
+-&gt; select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>androidTest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in app ‣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>build.gradle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+:testOptions {
+  unitTests.includeAndroidResources = true
+}
+to include source when unit test;
+dependency:
+testImplementation 'org.robolectric:robolectric:version'</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1192,7 +1558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1322,6 +1688,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1985,16 +2360,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBECE46-0004-4AB9-A50E-F1B658391690}">
-  <dimension ref="B2:I91"/>
+  <dimension ref="B2:I101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.36328125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" style="41" customWidth="1"/>
     <col min="3" max="3" width="29.81640625" style="31" customWidth="1"/>
     <col min="4" max="4" width="74.26953125" style="10" customWidth="1"/>
     <col min="5" max="5" width="7.36328125" style="7" customWidth="1"/>
@@ -2690,198 +3065,326 @@
       <c r="G64" s="3"/>
       <c r="I64"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B65" s="42"/>
       <c r="C65" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="11"/>
+      <c r="D65" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B66" s="42"/>
       <c r="C66" s="28"/>
-      <c r="D66" s="11"/>
+      <c r="D66" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="4"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B67" s="42"/>
       <c r="C67" s="28"/>
-      <c r="D67" s="11"/>
+      <c r="D67" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="E67" s="6"/>
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="39"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="23"/>
+    <row r="68" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B68" s="42"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="E68" s="6"/>
       <c r="F68" s="4"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="2:7" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="40"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="8"/>
+    <row r="69" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B69" s="42"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="E69" s="6"/>
       <c r="F69" s="4"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B70" s="38"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="9"/>
+    <row r="70" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="39"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="6"/>
       <c r="F70" s="4"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B71" s="38"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="9"/>
+    <row r="71" spans="2:7" ht="174.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>96</v>
+      </c>
       <c r="E71" s="6"/>
       <c r="F71" s="4"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" ht="203" x14ac:dyDescent="0.35">
       <c r="B72" s="38"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="9"/>
+      <c r="C72" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="E72" s="6"/>
       <c r="F72" s="4"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B73" s="38"/>
       <c r="C73" s="27"/>
-      <c r="D73" s="9"/>
+      <c r="D73" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="E73" s="6"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B74" s="38"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="9"/>
+      <c r="C74" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="E74" s="6"/>
       <c r="F74" s="4"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" ht="203" x14ac:dyDescent="0.35">
       <c r="B75" s="38"/>
       <c r="C75" s="27"/>
-      <c r="D75" s="9"/>
+      <c r="D75" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="E75" s="6"/>
       <c r="F75" s="4"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B76" s="38"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="9"/>
+    <row r="76" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B76" s="42"/>
+      <c r="C76" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>104</v>
+      </c>
       <c r="E76" s="6"/>
       <c r="F76" s="4"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B77" s="38"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="9"/>
+    <row r="77" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="39"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="6"/>
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="39"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="23"/>
+    <row r="78" spans="2:7" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="27"/>
+      <c r="D78" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="E78" s="6"/>
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="2:7" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="40"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="8"/>
+    <row r="79" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B79" s="38"/>
+      <c r="C79" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="E79" s="6"/>
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B80" s="38"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="9"/>
+    <row r="80" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B80" s="42"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="E80" s="6"/>
       <c r="F80" s="4"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B81" s="38"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="9"/>
+    <row r="81" spans="2:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="B81" s="42"/>
+      <c r="C81" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="E81" s="6"/>
       <c r="F81" s="4"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B82" s="38"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="9"/>
+    <row r="82" spans="2:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="B82" s="42"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="E82" s="6"/>
       <c r="F82" s="4"/>
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B83" s="38"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="9"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="6"/>
       <c r="F83" s="4"/>
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B84" s="38"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="9"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="6"/>
       <c r="F84" s="4"/>
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B85" s="38"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="9"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="6"/>
       <c r="F85" s="4"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B86" s="38"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="9"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="6"/>
       <c r="F86" s="4"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B87" s="38"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="9"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="6"/>
       <c r="F87" s="4"/>
       <c r="G87" s="3"/>
     </row>
+    <row r="88" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="39"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="2:7" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="40"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="38"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="3"/>
+    </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D91"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="38"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="38"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="38"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="38"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B96" s="38"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B97" s="38"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D101"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F87" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F97" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
       <formula1>"o,x"</formula1>
     </dataValidation>
   </dataValidations>
